--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238791.943495761</v>
+        <v>1267636.254250488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87474.49742309074</v>
+        <v>82872.13808297995</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>86.26493679875615</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>277.6787850649191</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.13267830033018</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>352.0426595656929</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.9694256543811</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>12.77609278441106</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>55.30577178795878</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>81.12200652863734</v>
+        <v>197.6998072002942</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>401.3550844723781</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541062</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>312.7196087087398</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.43151777216863</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.46741254485554</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>269.5134569480837</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>188.9135469653426</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>245.9555222332798</v>
       </c>
       <c r="V25" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>95.04536685828202</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>219.3567277916629</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2691,7 +2693,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V27" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.75446130335952</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>355.546756558266</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>13.91132232162457</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>10.43941339835948</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>160.0179384138202</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>408.8742649987729</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>333.0858266775315</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>134.6751203255734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>40.32232414915258</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3427,25 +3429,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>13.28273443010483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>52.17142175228587</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>119.0805886067736</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3667,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>62.27914576410181</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>157.0044783406136</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>28.10115714452299</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>269.5134569480836</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.703785687808</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.703785687808</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.703785687808</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E2" t="n">
-        <v>1039.703785687808</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4340,40 +4342,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1381.999952851774</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1008.534194590694</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>618.3948626148824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4422,28 +4424,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4515,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1933.544000781331</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C5" t="n">
-        <v>1564.581483840919</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D5" t="n">
-        <v>1206.315785234169</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E5" t="n">
-        <v>820.5275326359244</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F5" t="n">
-        <v>409.5416278463169</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2487.605830180654</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.971163152717</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2015.209377790809</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1684.146490447238</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1331.377835177124</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.851790143458</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.586091536707</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>895.797838938463</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>484.8119341488554</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>66.84812604704229</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,46 +4886,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931989</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5042,10 +5044,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2615.207670282225</v>
+        <v>2497.45231606843</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2243.690530706522</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,46 +5123,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5227,22 +5229,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.549250954101</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406939</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>786.546878019087</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5291,37 +5293,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
@@ -5373,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,7 +5445,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
         <v>529.6040388502502</v>
@@ -5452,34 +5454,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>286.532373693199</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.94416071721</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776798</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776798</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889461</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224079</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>677.1880571638397</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>462.8996339820025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>235.5914466506042</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>235.5914466506042</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1219.679656148628</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C20" t="n">
-        <v>850.7171392082162</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>474.3991258260721</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>56.43531772425894</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>56.43531772425894</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5783,19 +5785,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W20" t="n">
-        <v>2369.884586449641</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.418828188561</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y20" t="n">
-        <v>1606.27949621275</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5850,7 +5852,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5914,40 +5916,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036445</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E23" t="n">
-        <v>807.3934508328825</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>396.407546043275</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2451.298636937258</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2197.53685157535</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1866.473964231779</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1513.705308961665</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1140.239550700585</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>750.1002187247734</v>
       </c>
     </row>
     <row r="24">
@@ -6069,7 +6071,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
         <v>670.8219208598713</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="V25" t="n">
-        <v>2540.369809567131</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="W25" t="n">
-        <v>2250.95263953017</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2091.914583926163</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C26" t="n">
-        <v>1722.952066985752</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D26" t="n">
-        <v>1364.686368379001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>978.8981157807568</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>567.9122109911493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>149.9484028893362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6257,19 +6259,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.514423990285</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V26" t="n">
-        <v>2478.514423990285</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W26" t="n">
-        <v>2478.514423990285</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.514423990285</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y26" t="n">
-        <v>2478.514423990285</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="27">
@@ -6303,37 +6305,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6403,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1937.083492693021</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C29" t="n">
-        <v>1568.120975752609</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D29" t="n">
-        <v>1209.855277145859</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E29" t="n">
-        <v>824.0670245476144</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>413.0811197580069</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6464,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1648.431733400556</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1648.431733400556</v>
       </c>
       <c r="Y29" t="n">
-        <v>2323.683332757143</v>
+        <v>1648.431733400556</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6543,16 +6545,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.48784383890938</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
         <v>53.94298182036445</v>
@@ -6625,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W31" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X31" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y31" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>952.5674858910851</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C32" t="n">
-        <v>952.5674858910851</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D32" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1326.033244152165</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X32" t="n">
-        <v>952.5674858910851</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y32" t="n">
-        <v>952.5674858910851</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.4805193761945</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="C34" t="n">
-        <v>377.5443364482876</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="D34" t="n">
-        <v>227.4276970359519</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="E34" t="n">
-        <v>79.51460345355875</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2362.696896533841</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2531.696696795508</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.356583321973</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1599.122169790779</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="C37" t="n">
-        <v>411.0461427127113</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9295033003756</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E37" t="n">
-        <v>113.0164097179825</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F37" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="W37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="X37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.9823256406182</v>
+        <v>675.4305783960447</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2323.103882821189</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C38" t="n">
-        <v>1954.141365880777</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D38" t="n">
-        <v>1595.875667274027</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G38" t="n">
         <v>381.1377017843616</v>
@@ -7175,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7202,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2576.865668183098</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7251,49 +7253,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="D40" t="n">
-        <v>728.1289842064342</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="E40" t="n">
-        <v>709.5665374816298</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="F40" t="n">
-        <v>562.6765899837194</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="G40" t="n">
-        <v>393.6767897220518</v>
+        <v>2085.8713166767</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>2254.871116938368</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>2254.871116938368</v>
       </c>
     </row>
     <row r="41">
@@ -7385,70 +7387,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
         <v>2323.683332757143</v>
@@ -7485,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2476.356511874692</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C43" t="n">
-        <v>2476.356511874692</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D43" t="n">
-        <v>2476.356511874692</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E43" t="n">
-        <v>2328.443418292299</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F43" t="n">
-        <v>2181.553470794389</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>240.0763616045242</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>82.32798903705435</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>2476.356511874692</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090463</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194388</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2547.032451605887</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2399.119358023494</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2252.229410525583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2083.229610263916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>320.6111089429553</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>71.5621836524939</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>128.2883697226011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,13 +22755,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>61.74151045510206</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>21.44628715459038</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>311.1466799799461</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23194,10 +23196,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>100.8651170538364</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -23227,16 +23229,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,7 +23275,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23309,19 +23311,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>135.3263138290204</v>
+        <v>18.74851315736359</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42908554841694</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>151.3576608082672</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23674,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787152</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.55328306226778</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23935,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>96.23367420798922</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>149.4639037000057</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>79.72751176932934</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>27.5347733923152</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24418,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>40.32635200869797</v>
       </c>
       <c r="V25" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>228.8774059060751</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>31.86743971662639</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>123.6795013432097</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923383</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>58.23741346252899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>335.3296463957885</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8074077002684</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.01716704426411</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.909905022022087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>16.15514203988147</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>210.9018433591367</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,25 +25317,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>132.1383135928264</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>94.49377022787195</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>97.3677317508842</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>93.89174307769333</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25786,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>10.3053239184373</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>106.8644646478152</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>144.2707130727114</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26026,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>96.50703242635001</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26080,13 +26082,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
+        <v>289152.6100157572</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157575</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157575</v>
-      </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26427,7 +26429,7 @@
         <v>513.1084990597036</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26448,7 +26450,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,10 +26481,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.455761256</v>
+        <v>-384187.4557612563</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532881</v>
+        <v>205780.4234532883</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532884</v>
+        <v>205780.4234532882</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532885</v>
@@ -26534,19 +26536,19 @@
         <v>239408.0234532883</v>
       </c>
       <c r="G6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="H6" t="n">
+        <v>239408.0234532881</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62984.80426069541</v>
+      </c>
+      <c r="K6" t="n">
         <v>239408.0234532883</v>
-      </c>
-      <c r="I6" t="n">
-        <v>239408.0234532884</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62984.80426069544</v>
-      </c>
-      <c r="K6" t="n">
-        <v>239408.0234532884</v>
       </c>
       <c r="L6" t="n">
         <v>239408.0234532884</v>
@@ -26555,7 +26557,7 @@
         <v>239408.0234532884</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="O6" t="n">
         <v>239408.0234532884</v>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,13 +26749,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26762,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,10 +26801,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31142,10 +31144,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31604,7 +31606,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31856,10 +31858,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034983</v>
@@ -31993,7 +31995,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32002,34 +32004,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
@@ -32108,7 +32110,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32320,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32461,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32558,31 +32560,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32789,10 +32791,10 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L24" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -33029,7 +33031,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33041,7 +33043,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
@@ -33172,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33275,25 +33277,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,31 +34359,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35504,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35741,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35817,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36206,16 +36208,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36689,7 +36691,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
